--- a/old_new_GHG_indicators.xlsx
+++ b/old_new_GHG_indicators.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/tbenschop_worldbank_org/Documents/Documents/GitHub/WDI_GHG_emissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="8_{23F6DBD9-FA50-4177-954F-15D1E21F21B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55658C7-1888-4EB6-ADA9-658F03F59D8C}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="8_{23F6DBD9-FA50-4177-954F-15D1E21F21B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA457F21-3A1C-4C4E-ADC3-0541ABF4276B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1963841B-974C-4DD2-904F-05F81D6F40D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1963841B-974C-4DD2-904F-05F81D6F40D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
   <si>
     <t>EN.ATM.CO2E.KD.GD</t>
   </si>
@@ -510,15 +511,9 @@
     <t>Carbon dioxide (CO2) net fluxes from LULUCF - Deforestation (Mt CO2e)</t>
   </si>
   <si>
-    <t>Methane (CH4) net fluxes from LULUCF - Fires (Mt CO2e)</t>
-  </si>
-  <si>
     <t>Carbon dioxide (CO2) net fluxes from LULUCF - Fires (Mt CO2e)</t>
   </si>
   <si>
-    <t>Nitrous oxide (N2O) net fluxes from LULUCF - Fires (Mt CO2e)</t>
-  </si>
-  <si>
     <t>Carbon dioxide (CO2) net fluxes from LULUCF - Forest Land (Mt CO2e)</t>
   </si>
   <si>
@@ -528,9 +523,6 @@
     <t>Carbon dioxide (CO2) net fluxes from LULUCF - Other Land (Mt CO2e)</t>
   </si>
   <si>
-    <t>Total greenhouse gas emissions per capita excluding LULUCF (t CO2e/capita)</t>
-  </si>
-  <si>
     <t>Carbon dioxide (CO2) emissions excluding LULUCF per capita (t CO2e/capita)</t>
   </si>
   <si>
@@ -597,9 +589,6 @@
     <t>FGAS.</t>
   </si>
   <si>
-    <t>Total greenhouse gas net fluxes from LULUCF (Mt CO2e)</t>
-  </si>
-  <si>
     <t>Carbon intensity of GDP (kg CO2e per</t>
   </si>
   <si>
@@ -622,13 +611,25 @@
   </si>
   <si>
     <t>LU.OL.</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Total greenhouse gas emissions including LULUCF (Mt CO2e)</t>
+  </si>
+  <si>
+    <t>Total greenhouse gas emissions excluding LULUCF per capita (t CO2e/capita)</t>
+  </si>
+  <si>
+    <t>Carbon dioxide (CO2) net fluxes from LULUCF - Total excluding non-tropical fires (Mt CO2e)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +667,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -690,10 +698,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,9 +724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,7 +764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -862,7 +870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1014,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA71A7-A14F-4D0C-BEC2-B38A25D331E0}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>74</v>
@@ -1061,7 +1069,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1101,57 +1109,60 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.CONCAT(F4, G4, H4, I4, J4, K4, L4)</f>
+        <v>EN.GHG.ALL.LU.MT.CE.AR5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D19" si="0">_xlfn.CONCAT(F5, G5, H5, I5, J5, K5, L5)</f>
-        <v>EN.GHG.CO2.MT.CE.AR5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D13" si="1">_xlfn.CONCAT(F6, G6, H6, I6, J6, K6, L6)</f>
-        <v>EN.GHG.CO2.AG.MT.CE.AR5</v>
+        <f t="shared" ref="D6:D20" si="0">_xlfn.CONCAT(F6, G6, H6, I6, J6, K6, L6)</f>
+        <v>EN.GHG.CO2.MT.CE.AR5</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>120</v>
@@ -1161,9 +1172,6 @@
       </c>
       <c r="H6" t="s">
         <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>110</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
@@ -1180,11 +1188,11 @@
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.BU.MT.CE.AR5</v>
+        <f t="shared" ref="D7:D14" si="1">_xlfn.CONCAT(F7, G7, H7, I7, J7, K7, L7)</f>
+        <v>EN.GHG.CO2.AG.MT.CE.AR5</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>120</v>
@@ -1196,7 +1204,7 @@
         <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
@@ -1214,10 +1222,10 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.FE.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.BU.MT.CE.AR5</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
         <v>120</v>
@@ -1229,7 +1237,7 @@
         <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
         <v>109</v>
@@ -1247,10 +1255,10 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.IC.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.FE.MT.CE.AR5</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
         <v>120</v>
@@ -1262,7 +1270,7 @@
         <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
         <v>109</v>
@@ -1280,10 +1288,10 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.PI.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.IC.MT.CE.AR5</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -1295,7 +1303,7 @@
         <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
@@ -1313,10 +1321,10 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.IP.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.PI.MT.CE.AR5</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
         <v>120</v>
@@ -1328,7 +1336,7 @@
         <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
@@ -1346,10 +1354,10 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.TR.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.IP.MT.CE.AR5</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
         <v>120</v>
@@ -1361,7 +1369,7 @@
         <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
@@ -1379,10 +1387,10 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>EN.GHG.CO2.WA.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.TR.MT.CE.AR5</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
         <v>120</v>
@@ -1394,108 +1402,129 @@
         <v>107</v>
       </c>
       <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>EN.GHG.CO2.WA.MT.CE.AR5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" t="str">
-        <f>_xlfn.CONCAT(F20, G20, H20, I20, J20, K20, L20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D21" t="str">
         <f>_xlfn.CONCAT(F21, G21, H21, I21, J21, K21, L21)</f>
@@ -1503,11 +1532,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D22" t="str">
         <f>_xlfn.CONCAT(F22, G22, H22, I22, J22, K22, L22)</f>
@@ -1515,11 +1544,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.CONCAT(F23, G23, H23, I23, J23, K23, L23)</f>
@@ -1527,11 +1556,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D24" t="str">
         <f>_xlfn.CONCAT(F24, G24, H24, I24, J24, K24, L24)</f>
@@ -1539,44 +1568,20 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="str">
+        <f>_xlfn.CONCAT(F25, G25, H25, I25, J25, K25, L25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="str">
-        <f>_xlfn.CONCAT(F26, G26, H26, I26, J26, K26, L26)</f>
-        <v>EN.GHG.CH4.MT.CE.AR5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1584,17 +1589,17 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D81" si="2">_xlfn.CONCAT(F27, G27, H27, I27, J27, K27, L27)</f>
-        <v>EN.GHG.CH4.AG.MT.CE.AR5</v>
+        <f>_xlfn.CONCAT(F27, G27, H27, I27, J27, K27, L27)</f>
+        <v>EN.GHG.CH4.MT.CE.AR5</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
         <v>120</v>
@@ -1604,9 +1609,6 @@
       </c>
       <c r="H27" t="s">
         <v>130</v>
-      </c>
-      <c r="I27" t="s">
-        <v>110</v>
       </c>
       <c r="J27" t="s">
         <v>109</v>
@@ -1622,12 +1624,18 @@
       <c r="A28">
         <v>13</v>
       </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.BU.MT.CE.AR5</v>
+        <f t="shared" ref="D28:D81" si="2">_xlfn.CONCAT(F28, G28, H28, I28, J28, K28, L28)</f>
+        <v>EN.GHG.CH4.AG.MT.CE.AR5</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
         <v>120</v>
@@ -1639,7 +1647,7 @@
         <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
         <v>109</v>
@@ -1657,10 +1665,10 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.FE.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.BU.MT.CE.AR5</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
         <v>120</v>
@@ -1672,7 +1680,7 @@
         <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J29" t="s">
         <v>109</v>
@@ -1690,10 +1698,10 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.IC.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.FE.MT.CE.AR5</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
         <v>120</v>
@@ -1705,7 +1713,7 @@
         <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J30" t="s">
         <v>109</v>
@@ -1723,10 +1731,10 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.PI.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.IC.MT.CE.AR5</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" t="s">
         <v>120</v>
@@ -1738,7 +1746,7 @@
         <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
         <v>109</v>
@@ -1756,10 +1764,10 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.IP.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.PI.MT.CE.AR5</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>120</v>
@@ -1771,7 +1779,7 @@
         <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" t="s">
         <v>109</v>
@@ -1789,10 +1797,10 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.TR.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.IP.MT.CE.AR5</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" t="s">
         <v>120</v>
@@ -1804,7 +1812,7 @@
         <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
         <v>109</v>
@@ -1822,10 +1830,10 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.WA.MT.CE.AR5</v>
+        <v>EN.GHG.CH4.TR.MT.CE.AR5</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
         <v>120</v>
@@ -1837,91 +1845,88 @@
         <v>130</v>
       </c>
       <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>EN.GHG.CH4.WA.MT.CE.AR5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
         <v>117</v>
       </c>
-      <c r="J34" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="2"/>
         <v>EN.GHG.N2O.MT.CE.AR5</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>142</v>
-      </c>
-      <c r="F37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" t="s">
-        <v>141</v>
-      </c>
-      <c r="J37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.AG.MT.CE.AR5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>120</v>
@@ -1932,9 +1937,6 @@
       <c r="H38" t="s">
         <v>141</v>
       </c>
-      <c r="I38" t="s">
-        <v>110</v>
-      </c>
       <c r="J38" t="s">
         <v>109</v>
       </c>
@@ -1946,15 +1948,21 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>22</v>
       </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.BU.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.AG.MT.CE.AR5</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
         <v>120</v>
@@ -1966,7 +1974,7 @@
         <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
         <v>109</v>
@@ -1979,15 +1987,15 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>23</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.FE.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.BU.MT.CE.AR5</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
         <v>120</v>
@@ -1999,7 +2007,7 @@
         <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J40" t="s">
         <v>109</v>
@@ -2012,15 +2020,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>24</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.IC.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.FE.MT.CE.AR5</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
         <v>120</v>
@@ -2032,7 +2040,7 @@
         <v>141</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
@@ -2045,15 +2053,15 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>25</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.PI.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.IC.MT.CE.AR5</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
         <v>120</v>
@@ -2065,7 +2073,7 @@
         <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J42" t="s">
         <v>109</v>
@@ -2078,15 +2086,15 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>26</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.IP.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.PI.MT.CE.AR5</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
         <v>120</v>
@@ -2098,7 +2106,7 @@
         <v>141</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J43" t="s">
         <v>109</v>
@@ -2111,15 +2119,15 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>27</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.TR.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.IP.MT.CE.AR5</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
         <v>120</v>
@@ -2131,7 +2139,7 @@
         <v>141</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J44" t="s">
         <v>109</v>
@@ -2144,15 +2152,15 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>28</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.WA.MT.CE.AR5</v>
+        <v>EN.GHG.N2O.TR.MT.CE.AR5</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
         <v>120</v>
@@ -2164,154 +2172,154 @@
         <v>141</v>
       </c>
       <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>29</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>EN.GHG.N2O.WA.MT.CE.AR5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" t="s">
         <v>117</v>
       </c>
-      <c r="J45" t="s">
-        <v>109</v>
-      </c>
-      <c r="K45" t="s">
-        <v>108</v>
-      </c>
-      <c r="L45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" t="str">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>EN.GHG.FGAS.IP.MT.CE.AR5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.FGAS.IP.MT.CE.AR5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" t="s">
-        <v>119</v>
-      </c>
-      <c r="H48" t="s">
-        <v>185</v>
-      </c>
-      <c r="I48" t="s">
-        <v>115</v>
-      </c>
-      <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" t="s">
-        <v>108</v>
-      </c>
-      <c r="L48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="2"/>
         <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>30</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.CO2.LU.DF.MT.CE.AR5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" t="s">
-        <v>107</v>
-      </c>
-      <c r="I53" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53" t="s">
-        <v>109</v>
-      </c>
-      <c r="K53" t="s">
-        <v>108</v>
-      </c>
-      <c r="L53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2320,43 +2328,40 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CH4.LU.FI.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.LU.DF.MT.CE.AR5</v>
       </c>
       <c r="E54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="5" t="str">
+        <f>_xlfn.CONCAT(F55, G55, H55, I55, J55, K55, L55)</f>
+        <v>EN.GHG.CO2.LU.FI.MT.CE.AR5</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F54" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" t="s">
-        <v>191</v>
-      </c>
-      <c r="J54" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" t="s">
-        <v>108</v>
-      </c>
-      <c r="L54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>32</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.CO2.LU.FI.MT.CE.AR5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>158</v>
       </c>
       <c r="F55" t="s">
         <v>120</v>
@@ -2368,7 +2373,7 @@
         <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J55" t="s">
         <v>109</v>
@@ -2382,14 +2387,14 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.N2O.LU.FI.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.LU.FL.MT.CE.AR5</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
         <v>120</v>
@@ -2398,10 +2403,10 @@
         <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="I56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J56" t="s">
         <v>109</v>
@@ -2415,14 +2420,14 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CO2.LU.FL.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.LU.OS.MT.CE.AR5</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
         <v>120</v>
@@ -2434,7 +2439,7 @@
         <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J57" t="s">
         <v>109</v>
@@ -2448,14 +2453,14 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>EN.GHG.CO2.LU.OS.MT.CE.AR5</v>
+        <v>EN.GHG.CO2.LU.OL.MT.CE.AR5</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
         <v>120</v>
@@ -2467,7 +2472,7 @@
         <v>107</v>
       </c>
       <c r="I58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J58" t="s">
         <v>109</v>
@@ -2481,14 +2486,14 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.CO2.LU.OL.MT.CE.AR5</v>
+        <f>_xlfn.CONCAT(F59, G59, H59, I59, J59, K59, L59)</f>
+        <v>EN.GHG.CO2.LU.MT.CE.AR5</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="F59" t="s">
         <v>120</v>
@@ -2500,7 +2505,7 @@
         <v>107</v>
       </c>
       <c r="I59" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
         <v>109</v>
@@ -2513,42 +2518,11 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>37</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="2"/>
-        <v>EN.GHG.ALL.LU.MT.CE.AR5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" t="s">
-        <v>154</v>
-      </c>
-      <c r="I60" t="s">
-        <v>155</v>
-      </c>
-      <c r="J60" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60" t="s">
-        <v>108</v>
-      </c>
-      <c r="L60" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2558,7 +2532,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D62" t="str">
@@ -2567,18 +2541,20 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>172</v>
+      <c r="A63" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64">
+        <v>36</v>
+      </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
         <v>EN.GHG.ALL.PC.CE.AR5</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F64" t="s">
         <v>120</v>
@@ -2590,7 +2566,7 @@
         <v>154</v>
       </c>
       <c r="J64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s">
         <v>108</v>
@@ -2601,7 +2577,7 @@
     </row>
     <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -2614,7 +2590,7 @@
         <v>EN.GHG.CO2.PC.CE.AR5</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
         <v>120</v>
@@ -2626,7 +2602,7 @@
         <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s">
         <v>108</v>
@@ -2636,13 +2612,13 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>173</v>
+      <c r="A66" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -2655,7 +2631,7 @@
         <v>EN.GHG.CO2.RT.ELEC.KH</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F67" t="s">
         <v>120</v>
@@ -2667,20 +2643,20 @@
         <v>107</v>
       </c>
       <c r="J67" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>40</v>
-      </c>
-      <c r="B68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
@@ -2688,17 +2664,32 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>EN.GHG.CO2.RT.GDP.KD</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="F68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" t="s">
+        <v>119</v>
+      </c>
+      <c r="H68" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>41</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
@@ -2708,13 +2699,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E69" t="s">
-        <v>188</v>
+      <c r="E69" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2727,7 +2718,7 @@
         <v>EN.GHG.CO2.RT.GDP.PP.KD</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>120</v>
@@ -2739,36 +2730,30 @@
         <v>107</v>
       </c>
       <c r="J70" t="s">
+        <v>176</v>
+      </c>
+      <c r="K70" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70" t="s">
         <v>179</v>
       </c>
-      <c r="K70" t="s">
-        <v>180</v>
-      </c>
-      <c r="L70" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>43</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
+      <c r="E71" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>174</v>
+      <c r="A72" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>44</v>
-      </c>
       <c r="B73" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D73" t="str">
@@ -2777,13 +2762,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>45</v>
-      </c>
       <c r="B74" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" t="str">
@@ -2792,13 +2774,10 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>46</v>
-      </c>
       <c r="B75" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D75" t="str">
@@ -2807,13 +2786,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>47</v>
-      </c>
       <c r="B76" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D76" t="str">
@@ -2822,14 +2798,14 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="5"/>
+      <c r="A77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -2842,7 +2818,7 @@
         <v>EN.GHG.TOT.ZG.AR5</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F78" t="s">
         <v>120</v>
@@ -2854,7 +2830,7 @@
         <v>118</v>
       </c>
       <c r="K78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L78" t="s">
         <v>100</v>
@@ -2862,14 +2838,14 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v>EN.GHG.CO2.ZG.AR5</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F79" t="s">
         <v>120</v>
@@ -2881,7 +2857,7 @@
         <v>107</v>
       </c>
       <c r="K79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s">
         <v>100</v>
@@ -2889,7 +2865,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -2902,7 +2878,7 @@
         <v>EN.GHG.CH4.ZG.AR5</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F80" t="s">
         <v>120</v>
@@ -2914,7 +2890,7 @@
         <v>130</v>
       </c>
       <c r="K80" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L80" t="s">
         <v>100</v>
@@ -2922,7 +2898,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -2935,7 +2911,7 @@
         <v>EN.GHG.N2O.ZG.AR5</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F81" t="s">
         <v>120</v>
@@ -2947,17 +2923,17 @@
         <v>141</v>
       </c>
       <c r="K81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L81" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="str">
@@ -2966,8 +2942,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:I50">
-    <sortCondition ref="B1:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:I51">
+    <sortCondition ref="B1:B51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,13 +2967,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D1" t="str">
@@ -3006,13 +2982,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="str">
@@ -3027,7 +3003,7 @@
       <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="str">
@@ -3042,7 +3018,7 @@
       <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D4" t="str">
@@ -3057,7 +3033,7 @@
       <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D5" t="str">
@@ -3066,13 +3042,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D6" t="str">
@@ -3087,7 +3063,7 @@
       <c r="B7" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D7" t="str">
@@ -3096,13 +3072,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D8" t="str">
@@ -3111,13 +3087,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D9" t="str">
@@ -3126,13 +3102,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D10" t="str">
@@ -3147,7 +3123,7 @@
       <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D11" t="str">
@@ -3162,7 +3138,7 @@
       <c r="B12" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D12" t="str">
@@ -3177,7 +3153,7 @@
       <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D13" t="str">
@@ -3186,13 +3162,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D14" t="str">
@@ -3207,7 +3183,7 @@
       <c r="B15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D15" t="str">
@@ -3216,13 +3192,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="str">
@@ -3231,13 +3207,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D17" t="str">
@@ -3246,13 +3222,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D18" t="str">
@@ -3261,13 +3237,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D19" t="str">
@@ -3282,7 +3258,7 @@
       <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D20" t="str">
@@ -3297,7 +3273,7 @@
       <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D21" t="str">
@@ -3312,7 +3288,7 @@
       <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D22" t="str">
@@ -3321,13 +3297,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D23" t="str">
@@ -3342,7 +3318,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D24" t="str">
@@ -3351,13 +3327,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D25" t="str">
@@ -3366,13 +3342,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D26" t="str">
@@ -3381,13 +3357,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D27" t="str">
@@ -3396,13 +3372,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D28" t="str">
@@ -3411,13 +3387,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D29" t="str">
@@ -3426,13 +3402,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D30" t="str">
@@ -3441,13 +3417,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D31" t="str">
@@ -3456,13 +3432,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D32" t="str">
